--- a/medicine/Psychotrope/Psychonautisme/Psychonautisme.xlsx
+++ b/medicine/Psychotrope/Psychonautisme/Psychonautisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le psychonautisme est un néologisme, regroupant les « navigateurs de l'âme » et leur doctrine[1], signifiant à la fois une méthode pour analyser les effets subjectifs des états modifiés de conscience (obtenus avec des substances psychotropes ou avec des méthodes naturelles : voir ci-dessous) et en même temps, une recherche de paradigme dans lequel le chercheur trouve un moyen d'explorer l'existence, d'enrichir l'expérience humaine comme de trouver des réponses aux questions religieuses[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le psychonautisme est un néologisme, regroupant les « navigateurs de l'âme » et leur doctrine, signifiant à la fois une méthode pour analyser les effets subjectifs des états modifiés de conscience (obtenus avec des substances psychotropes ou avec des méthodes naturelles : voir ci-dessous) et en même temps, une recherche de paradigme dans lequel le chercheur trouve un moyen d'explorer l'existence, d'enrichir l'expérience humaine comme de trouver des réponses aux questions religieuses.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme « psychonaute » provient du terme ψυχήναύτης en grec ancien formé de ψυχή, psyché désignant « l'âme / l'esprit » et de ναύτης naute signifiant « navigateur ». Quant-au terme « psychonautisme », il provient de « psychonaute » et du suffixe « -isme » représentant la « doctrine ». Le terme « psychonautique » est attribué à Ernst Jünger[1] qui s'en est servi pour désigner l'essai Annäherungen: Drogen und Rausch (1970) de Arthur Heffter sur l'expérience des drogues[3].
-Peter Carroll fait de « psychonaute » le titre de son livre de 1982 sur les expériences de méditations, de rituels et des drogues dans les phénomènes psychiques ou « Magie du Chaos »[4]. La première occurrence de ce terme publiée dans un contexte universitaire est attribuée à l'ethnobotaniste Jonathan Ott (en) en 2001[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « psychonaute » provient du terme ψυχήναύτης en grec ancien formé de ψυχή, psyché désignant « l'âme / l'esprit » et de ναύτης naute signifiant « navigateur ». Quant-au terme « psychonautisme », il provient de « psychonaute » et du suffixe « -isme » représentant la « doctrine ». Le terme « psychonautique » est attribué à Ernst Jünger qui s'en est servi pour désigner l'essai Annäherungen: Drogen und Rausch (1970) de Arthur Heffter sur l'expérience des drogues.
+Peter Carroll fait de « psychonaute » le titre de son livre de 1982 sur les expériences de méditations, de rituels et des drogues dans les phénomènes psychiques ou « Magie du Chaos ». La première occurrence de ce terme publiée dans un contexte universitaire est attribuée à l'ethnobotaniste Jonathan Ott (en) en 2001.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Méthodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Utilisation d'enthéogènes[1] incluant DMT, LSD, champignons hallucinogènes, mescaline, ayahuasca en ce qui concerne les drogues psychédéliques (« qui ouvrent l'esprit, qui révèlent l'âme ») ; et, d'un autre côté, de Salvia divinorum (sauge des devins), DXM, kétamine, MXE, PCP en ce qui concerne les dissociatifs (qui dissocient le corps de l'esprit) et d'autres produits comme le cannabis ou l'opium ou bien encore les NPS (Research chemicals) du marché.
-Transe[1]
-Hypnose[1]
-Méditation[1]
-Prières[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Utilisation d'enthéogènes incluant DMT, LSD, champignons hallucinogènes, mescaline, ayahuasca en ce qui concerne les drogues psychédéliques (« qui ouvrent l'esprit, qui révèlent l'âme ») ; et, d'un autre côté, de Salvia divinorum (sauge des devins), DXM, kétamine, MXE, PCP en ce qui concerne les dissociatifs (qui dissocient le corps de l'esprit) et d'autres produits comme le cannabis ou l'opium ou bien encore les NPS (Research chemicals) du marché.
+Transe
+Hypnose
+Méditation
+Prières
 Caisson d'isolation sensorielle</t>
         </is>
       </c>
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Influence de Alexandre et Ann Shulgin
-Les méthodes décrites et romancées dans PiHKAL et TiHKAL donne une aura à la vie du couple Shulgin et des différentes expériences qu'ils mènent. Ils sont la source d'inspiration de nombreux psychonautes consommant des substances psychoactives qui décrivent leurs impressions et sensations durant leur "voyage"[7]. Ils font ainsi des "trip report" (TR) qui racontent l'expérience vécue. Ils essayent de mesurer, tester et noter les faits qu'ils peuvent ressentir de manière plus ou moins détaillés, en faire partager la communauté pour acquérir collectivement des savoirs et diminuer les risques[8],[7]. Certains s'appellent eux-mêmes ainsi des "Shulginist" en essayant de suivre les préceptes des Shulgin[9].
+          <t>Influence de Alexandre et Ann Shulgin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les méthodes décrites et romancées dans PiHKAL et TiHKAL donne une aura à la vie du couple Shulgin et des différentes expériences qu'ils mènent. Ils sont la source d'inspiration de nombreux psychonautes consommant des substances psychoactives qui décrivent leurs impressions et sensations durant leur "voyage". Ils font ainsi des "trip report" (TR) qui racontent l'expérience vécue. Ils essayent de mesurer, tester et noter les faits qu'ils peuvent ressentir de manière plus ou moins détaillés, en faire partager la communauté pour acquérir collectivement des savoirs et diminuer les risques,. Certains s'appellent eux-mêmes ainsi des "Shulginist" en essayant de suivre les préceptes des Shulgin.
 </t>
         </is>
       </c>
@@ -610,10 +631,12 @@
           <t>E-Psychonautisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les psychonautes se sont regroupés dans des espaces de discussion sur Internet (par exemple, en anglais : Erowid, Psychonautwiki, et en français Psychonaut , PsychoActif) partager leur trip report. Ils intègrent dans leur démarche les principes de la Réduction des risques liés à la toxicomanie (RdR).
-Le terme e-psychonautes  est un néologisme qui désignent ces nouveaux usagers de drogues et psychonautes[7].
+Le terme e-psychonautes  est un néologisme qui désignent ces nouveaux usagers de drogues et psychonautes.
 </t>
         </is>
       </c>
